--- a/data/trans_camb/P34_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.7812645694792619</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.386717836543086</v>
+        <v>4.38671783654308</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-4.652137755314023</v>
@@ -664,7 +664,7 @@
         <v>-0.06098470701798586</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3461136315573821</v>
+        <v>0.3461136315573876</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.14876031839962</v>
+        <v>-11.12805696036257</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.396073760337358</v>
+        <v>-5.610958658374486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.617161169520204</v>
+        <v>-8.981528771480741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.73297012682441</v>
+        <v>-7.138930748907891</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.866375115515051</v>
+        <v>-3.791578643994444</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08752047861953183</v>
+        <v>-0.2465184948883233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.038221901523221</v>
+        <v>-7.969646713728635</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.527635373802414</v>
+        <v>-3.656992553951795</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.861874604340059</v>
+        <v>-2.83021619411071</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.65214822266377</v>
+        <v>-1.419230224772013</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.319297803662635</v>
+        <v>4.175544912171744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.639780040540373</v>
+        <v>1.378387080925042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.947845075644695</v>
+        <v>1.798012449304168</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.65829820024293</v>
+        <v>5.742628007438812</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.27998308081547</v>
+        <v>8.263230901377096</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.308704690925814</v>
+        <v>-1.351786356990852</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.500678137753035</v>
+        <v>3.103480661117595</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.543022916358326</v>
+        <v>3.419321022064764</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.0293213737820484</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1646364092094833</v>
+        <v>0.1646364092094831</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1564406583422583</v>
@@ -769,7 +769,7 @@
         <v>-0.002050774980557181</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.01163900280472493</v>
+        <v>0.01163900280472512</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3194560505122188</v>
+        <v>-0.3137390527923631</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1534198289348472</v>
+        <v>-0.1602707071293399</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2438017649627726</v>
+        <v>-0.2522413075461024</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2624229565228705</v>
+        <v>-0.2514644345640001</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1347716172505934</v>
+        <v>-0.1344753372052086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0005030537016699722</v>
+        <v>-0.009229019993449399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2525764608180606</v>
+        <v>-0.2543652486474609</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.114161515134134</v>
+        <v>-0.1149465308727291</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.09161008914493872</v>
+        <v>-0.08997621529208298</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.04908774573835155</v>
+        <v>-0.03993864904903068</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1447512954677924</v>
+        <v>0.1352310780609541</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05614023178373519</v>
+        <v>0.04678350072377893</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08400452816904549</v>
+        <v>0.06737245703903447</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2272615895106725</v>
+        <v>0.242723206186525</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3368581963720609</v>
+        <v>0.3454985301479051</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04472568153043859</v>
+        <v>-0.04703402433588242</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1271106152525913</v>
+        <v>0.1079071792367087</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.127077272761546</v>
+        <v>0.1198326640060272</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.46541644750539</v>
+        <v>-11.66753557596583</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.251927592624744</v>
+        <v>-8.264955253693516</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.017139066067978</v>
+        <v>-8.515928074923389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.769577627610914</v>
+        <v>-2.774498422660961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.992925317324746</v>
+        <v>-6.983942347793579</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.899239687792684</v>
+        <v>-0.4989131765636024</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.03352242397172</v>
+        <v>-5.909414075831697</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.449597345196699</v>
+        <v>-6.35359896739361</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.07946509948136</v>
+        <v>-3.007908714055047</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.764458488035729</v>
+        <v>-2.62123769709482</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4573636061363779</v>
+        <v>0.4800968935129817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.122692977043122</v>
+        <v>0.7843862928833076</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.785232093981733</v>
+        <v>5.468299844102098</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.776263556670912</v>
+        <v>1.077357314855814</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.802457411906467</v>
+        <v>7.454929956885187</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3454503575488892</v>
+        <v>0.2336087745269493</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.3931535662912607</v>
+        <v>-0.2833866470236346</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.902849815790556</v>
+        <v>2.849404558042694</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2835065862813009</v>
+        <v>-0.2940588537429905</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.20683094512359</v>
+        <v>-0.2038314658185705</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2031474235762974</v>
+        <v>-0.2083229246095047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08539056944091422</v>
+        <v>-0.08607666180057932</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2218161726846652</v>
+        <v>-0.2186198996004855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02592008373313751</v>
+        <v>-0.01539104606634321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1704222415935613</v>
+        <v>-0.1659157591488974</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1853984748061834</v>
+        <v>-0.1762475484979629</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08877609153997121</v>
+        <v>-0.08629135286781241</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0700932851625443</v>
+        <v>-0.07611716881306134</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01335118577764254</v>
+        <v>0.01517110297515612</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03128221154208578</v>
+        <v>0.02891358625181659</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2099229001316704</v>
+        <v>0.2022549694567552</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06260504065292008</v>
+        <v>0.0398517748494249</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.248112682674053</v>
+        <v>0.27291115466324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01013003308189227</v>
+        <v>0.007819926487665359</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01238030520415286</v>
+        <v>-0.008669233610380514</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.08780345174078694</v>
+        <v>0.08748342961637107</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.700040210901332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.165541099428592</v>
+        <v>-2.165541099428586</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.137311379624108</v>
@@ -1092,7 +1092,7 @@
         <v>3.140977840289716</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.186291975451349</v>
+        <v>2.186291975451354</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.93756390110323</v>
+        <v>-10.17748060379335</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.031555492085667</v>
+        <v>-6.713652970001798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.191811911981431</v>
+        <v>-7.651169584862765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.878620373416979</v>
+        <v>-1.99205010660615</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.882873881563095</v>
+        <v>3.102472656436867</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.140446497083495</v>
+        <v>2.022045094018967</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.111607858549165</v>
+        <v>-4.603264898567963</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3913015559652885</v>
+        <v>-0.6021061654163248</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.322871306842788</v>
+        <v>-1.368203274175992</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.55975345328518</v>
+        <v>0.3371647013471635</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.247827676491007</v>
+        <v>3.608421685315927</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.207204567979323</v>
+        <v>3.195711778641348</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.790459978532</v>
+        <v>7.669753362314988</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.66193486923063</v>
+        <v>13.21321135961311</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.93537391661249</v>
+        <v>10.86362074606594</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.912495185072187</v>
+        <v>2.469873008726246</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.83331552858448</v>
+        <v>6.782668318400993</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.450138826289168</v>
+        <v>5.840414567839479</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.04659197355005235</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.05934967477777155</v>
+        <v>-0.05934967477777139</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.118192127969393</v>
@@ -1197,7 +1197,7 @@
         <v>0.09975093270694507</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.06943209242790006</v>
+        <v>0.06943209242790024</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2489349582082829</v>
+        <v>-0.258865525415539</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1751149821069318</v>
+        <v>-0.1731811473872447</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1857886514060763</v>
+        <v>-0.1921093484029298</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.06511774462977722</v>
+        <v>-0.06827435372625497</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09824805065466524</v>
+        <v>0.1130176440003095</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07576804248424528</v>
+        <v>0.06934586161774138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1236408594740769</v>
+        <v>-0.1357402333414458</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01169735041939135</v>
+        <v>-0.01623611330561936</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.039177105736135</v>
+        <v>-0.03993514312591893</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.01472619006599213</v>
+        <v>0.009725661805779174</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09545060918701877</v>
+        <v>0.1079717014770772</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09461589841122411</v>
+        <v>0.1014020910389382</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3143818314375866</v>
+        <v>0.3170969083249859</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5217020592268218</v>
+        <v>0.5625185874254607</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4636548056855759</v>
+        <v>0.4521889838746511</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09960195118987143</v>
+        <v>0.08149470194348866</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2267664798296574</v>
+        <v>0.22939106136265</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1829542963640469</v>
+        <v>0.1977779539378852</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.4471778556409</v>
+        <v>-13.99168129457608</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.93500398725665</v>
+        <v>-5.955918955477274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.01697383487144</v>
+        <v>-8.681766847904202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.84936624021351</v>
+        <v>-11.78885934794686</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.168391214041463</v>
+        <v>-7.106252861704706</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.014629607667826</v>
+        <v>-3.83117078117139</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.56659294445153</v>
+        <v>-11.42227001888317</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.423372704768192</v>
+        <v>-5.299765852114339</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.821445007364562</v>
+        <v>-4.648108486298252</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.934763001974077</v>
+        <v>-4.810071261908273</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.106796071402119</v>
+        <v>3.038796727363925</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6708267949018987</v>
+        <v>1.10693220772556</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.314999267077095</v>
+        <v>-3.453560166455223</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.463066838582936</v>
+        <v>1.466459126115785</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.333010319533457</v>
+        <v>4.324900132053121</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-5.545522262704061</v>
+        <v>-5.387815489458567</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6541481344132796</v>
+        <v>0.7203947447017711</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.436284768707196</v>
+        <v>1.419369729452164</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2993338517635096</v>
+        <v>-0.2966461742144917</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.123790159024586</v>
+        <v>-0.1258804093909859</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1680660208986892</v>
+        <v>-0.1799420236947023</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2875007207207145</v>
+        <v>-0.2860954080363146</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1776884214625326</v>
+        <v>-0.1716254210337997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09867441072394353</v>
+        <v>-0.09284110953471324</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2646243760609221</v>
+        <v>-0.2600518365605315</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1248083632890385</v>
+        <v>-0.1207590109333861</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1107897258398105</v>
+        <v>-0.1081032972193441</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.113058417254615</v>
+        <v>-0.1122893657549467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07169220498710345</v>
+        <v>0.07135333607810193</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01718067585539515</v>
+        <v>0.02532221149280816</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.08807080714939985</v>
+        <v>-0.09497425711042635</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03826117349226016</v>
+        <v>0.04007383499401024</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1205733837855937</v>
+        <v>0.1199925453691183</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1367621782436083</v>
+        <v>-0.1331543589045439</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01479634314095261</v>
+        <v>0.01769547655890683</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.0352775709405259</v>
+        <v>0.03463554953568395</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.15001967416269</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.28441382824588</v>
+        <v>-3.284413828245869</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.860732527080294</v>
@@ -1511,7 +1511,7 @@
         <v>0.1066032647417559</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.226813214770385</v>
+        <v>3.226813214770391</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.45818026246188</v>
@@ -1520,7 +1520,7 @@
         <v>-1.020240960607455</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.01915920519665049</v>
+        <v>0.01915920519664494</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.372412939261872</v>
+        <v>-9.33204324507707</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.62208203514822</v>
+        <v>-4.39918465262216</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.792124496335662</v>
+        <v>-5.757826448022747</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.014963653568706</v>
+        <v>-3.941125217847655</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.026561379896219</v>
+        <v>-2.279321230324081</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.033251405195203</v>
+        <v>1.019454163421152</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.183483172760846</v>
+        <v>-6.213565941972192</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.520262802054527</v>
+        <v>-2.820869004515113</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.69265015499467</v>
+        <v>-1.585594920740538</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.801493193071262</v>
+        <v>-4.691210042428642</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3040804257836935</v>
+        <v>0.1419947609299994</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5724621153674687</v>
+        <v>-0.7332540770709651</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4386588486653847</v>
+        <v>0.3563613021423506</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.491858859017622</v>
+        <v>2.34053373209741</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.255059467554559</v>
+        <v>5.330756950331057</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.97003509523641</v>
+        <v>-2.908541899126716</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8402381330275299</v>
+        <v>0.7096594745592839</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.57894865351389</v>
+        <v>1.644335068896816</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.0554593613727218</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.08472084957510471</v>
+        <v>-0.08472084957510444</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05952805349719932</v>
@@ -1616,7 +1616,7 @@
         <v>0.003410422913647227</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1032313386683933</v>
+        <v>0.1032313386683935</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1275582319072593</v>
@@ -1625,7 +1625,7 @@
         <v>-0.02919131246222538</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.0005481865235937185</v>
+        <v>0.0005481865235935597</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.234751159396934</v>
+        <v>-0.2340673848795728</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1167606112627715</v>
+        <v>-0.1126170649080034</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1450855884744012</v>
+        <v>-0.1427479976515139</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1253650471807879</v>
+        <v>-0.1245216087097284</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06320401359952003</v>
+        <v>-0.07108903390902903</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03122287687331767</v>
+        <v>0.03140103622864874</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1721047098959322</v>
+        <v>-0.1738810568833372</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07029091110726433</v>
+        <v>-0.07781896619456979</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.04705409542205791</v>
+        <v>-0.04432924909929978</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1275571558756261</v>
+        <v>-0.1239101902150563</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.007991491052590926</v>
+        <v>0.002667010275298883</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.01517156721067198</v>
+        <v>-0.01895840094147887</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01520880358886989</v>
+        <v>0.01164709874062929</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08459853079296785</v>
+        <v>0.07778420505117613</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1736338363842744</v>
+        <v>0.1786657228818977</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.08658509951423649</v>
+        <v>-0.08579957110998013</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02472410280995363</v>
+        <v>0.02131034264357142</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.04585798757490173</v>
+        <v>0.04830098641073492</v>
       </c>
     </row>
     <row r="34">
